--- a/player_d_dash/defense-dash-3pt_SeasonType_Playoffs_Season_2021-22.xlsx
+++ b/player_d_dash/defense-dash-3pt_SeasonType_Playoffs_Season_2021-22.xlsx
@@ -569,12 +569,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>36.6</t>
+          <t>36.7</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-2.2</t>
+          <t>-2.3</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>37.1</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>7.8</t>
         </is>
       </c>
     </row>
@@ -829,12 +829,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>35.1</t>
+          <t>35.2</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.3</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-8.6</t>
+          <t>-8.5</t>
         </is>
       </c>
     </row>
@@ -1024,12 +1024,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>37.4</t>
+          <t>37.3</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>-1.1</t>
+          <t>-0.9</t>
         </is>
       </c>
     </row>
@@ -1234,42 +1234,42 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Draymond Green</t>
+          <t>Joel Embiid</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>27.9%</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1279,17 +1279,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>26.3</t>
+          <t>24.2</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>35.2</t>
+          <t>33.9</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>-8.9</t>
+          <t>-9.7</t>
         </is>
       </c>
     </row>
@@ -1299,62 +1299,62 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Joel Embiid</t>
+          <t>Draymond Green</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>27.9%</t>
+          <t>37.3%</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>24.2</t>
+          <t>25.6</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>33.9</t>
+          <t>35.3</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>-9.7</t>
+          <t>-9.6</t>
         </is>
       </c>
     </row>
@@ -1364,42 +1364,42 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Al Horford</t>
+          <t>Andrew Wiggins</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>30.2%</t>
+          <t>37.2%</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1409,17 +1409,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>42.4</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>36.5</t>
+          <t>35.9</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>6.5</t>
         </is>
       </c>
     </row>
@@ -1429,62 +1429,62 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Andrew Wiggins</t>
+          <t>Al Horford</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>37.6%</t>
+          <t>30.7%</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>40.5</t>
+          <t>32.6</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>35.9</t>
+          <t>36.5</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>-3.9</t>
         </is>
       </c>
     </row>
@@ -1689,42 +1689,42 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Luka Doncic</t>
+          <t>Kyrie Irving</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>32.6%</t>
+          <t>37.9%</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1734,17 +1734,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>33.8</t>
+          <t>31.8</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>36.7</t>
+          <t>35.1</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-3.3</t>
         </is>
       </c>
     </row>
@@ -1754,37 +1754,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Kyrie Irving</t>
+          <t>Giannis Antetokounmpo</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>37.9%</t>
+          <t>39.3%</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1804,12 +1804,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>35.1</t>
+          <t>36.7</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-4.9</t>
         </is>
       </c>
     </row>
@@ -1819,42 +1819,42 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
+          <t>Luka Doncic</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>39.3%</t>
+          <t>32.6%</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>31.8</t>
+          <t>33.8</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>36.6</t>
+          <t>36.7</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>-4.8</t>
+          <t>-2.9</t>
         </is>
       </c>
     </row>
@@ -1884,17 +1884,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Pat Connaughton</t>
+          <t>Marcus Smart</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1904,42 +1904,42 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>52.9%</t>
+          <t>43.3%</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>32.8</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>35.8</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-8.1</t>
         </is>
       </c>
     </row>
@@ -2014,17 +2014,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Alex Caruso</t>
+          <t>Pat Connaughton</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2034,17 +2034,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>40.4%</t>
+          <t>52.9%</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2059,17 +2059,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>32.8</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>35.8</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>-2.9</t>
         </is>
       </c>
     </row>
@@ -2079,12 +2079,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Marcus Smart</t>
+          <t>Alex Caruso</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2099,42 +2099,42 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>42.5%</t>
+          <t>40.4%</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>30.3</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>-6.7</t>
+          <t>-2.7</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
@@ -2404,22 +2404,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Aaron Gordon</t>
+          <t>De'Andre Hunter</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>44.6%</t>
+          <t>37.3%</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2454,12 +2454,12 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>36.5</t>
+          <t>34.5</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>9.5</t>
         </is>
       </c>
     </row>
@@ -2469,42 +2469,42 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tyrese Maxey</t>
+          <t>Aaron Gordon</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>41.4%</t>
+          <t>44.6%</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2514,17 +2514,17 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>36.6</t>
+          <t>36.3</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>-6.6</t>
+          <t>7.7</t>
         </is>
       </c>
     </row>
@@ -2534,42 +2534,42 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>De'Andre Hunter</t>
+          <t>Tyrese Maxey</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>37.3%</t>
+          <t>41.4%</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2579,17 +2579,17 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>34.5</t>
+          <t>36.6</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>-6.6</t>
         </is>
       </c>
     </row>
@@ -2729,22 +2729,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Bogdan Bogdanovic</t>
+          <t>Scottie Barnes</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2759,7 +2759,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>42.2%</t>
+          <t>38.0%</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2779,12 +2779,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>36.2</t>
+          <t>37.8</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
@@ -2794,22 +2794,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Scottie Barnes</t>
+          <t>Bogdan Bogdanovic</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>38.0%</t>
+          <t>42.2%</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2844,12 +2844,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>37.8</t>
+          <t>36.2</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.9</t>
         </is>
       </c>
     </row>
@@ -2924,42 +2924,42 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Dorian Finney-Smith</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>43.9%</t>
+          <t>33.2%</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2969,17 +2969,17 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>28.8</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>36.2</t>
+          <t>36.8</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>-8.0</t>
         </is>
       </c>
     </row>
@@ -2989,17 +2989,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Dorian Finney-Smith</t>
+          <t>P.J. Tucker</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3009,22 +3009,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>33.2%</t>
+          <t>45.4%</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3034,17 +3034,17 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>28.8</t>
+          <t>38.1</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>36.8</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>-8.1</t>
+          <t>1.7</t>
         </is>
       </c>
     </row>
@@ -3054,42 +3054,42 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>P.J. Tucker</t>
+          <t>Jordan Clarkson</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>45.4%</t>
+          <t>54.9%</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3099,17 +3099,17 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>38.1</t>
+          <t>28.6</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>36.4</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>-7.1</t>
         </is>
       </c>
     </row>
@@ -3119,62 +3119,62 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Jordan Clarkson</t>
+          <t>Deandre Ayton</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>54.9%</t>
+          <t>27.9%</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>28.6</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>35.9</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>-7.1</t>
+          <t>-2.6</t>
         </is>
       </c>
     </row>
@@ -3184,42 +3184,42 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Deandre Ayton</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>27.9%</t>
+          <t>42.4%</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3229,17 +3229,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>40.2</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>35.9</t>
+          <t>36.2</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>-2.6</t>
+          <t>4.0</t>
         </is>
       </c>
     </row>
@@ -3509,42 +3509,42 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Robert Williams III</t>
+          <t>Herbert Jones</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>37.8%</t>
+          <t>35.1%</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3554,17 +3554,17 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>29.2</t>
+          <t>26.9</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>-8.3</t>
+          <t>-9.5</t>
         </is>
       </c>
     </row>
@@ -3574,42 +3574,42 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Herbert Jones</t>
+          <t>Devin Booker</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>35.1%</t>
+          <t>33.6%</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3619,17 +3619,17 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>26.9</t>
+          <t>34.9</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>36.4</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>-9.5</t>
+          <t>-2.3</t>
         </is>
       </c>
     </row>
@@ -3639,17 +3639,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Devin Booker</t>
+          <t>Gabe Vincent</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3659,22 +3659,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>33.6%</t>
+          <t>48.7%</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3684,17 +3684,17 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>34.9</t>
+          <t>28.6</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>37.2</t>
+          <t>36.8</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>-8.3</t>
         </is>
       </c>
     </row>
@@ -3704,37 +3704,37 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Gabe Vincent</t>
+          <t>Jaren Jackson Jr.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>48.7%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3749,17 +3749,17 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>28.6</t>
+          <t>27.5</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>36.9</t>
+          <t>36.8</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>-8.3</t>
+          <t>-9.4</t>
         </is>
       </c>
     </row>
@@ -3769,62 +3769,62 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Jordan Poole</t>
+          <t>DeMar DeRozan</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>42.6%</t>
+          <t>40.4%</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>37.4</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>5.4</t>
         </is>
       </c>
     </row>
@@ -3834,62 +3834,62 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Jaren Jackson Jr.</t>
+          <t>Gary Payton II</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>55.3%</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>27.5</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>36.9</t>
+          <t>35.9</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>-9.4</t>
+          <t>9.3</t>
         </is>
       </c>
     </row>
@@ -3964,42 +3964,42 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DeMar DeRozan</t>
+          <t>Robert Williams III</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>40.4%</t>
+          <t>35.8%</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4009,17 +4009,17 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>28.4</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>37.4</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>-9.2</t>
         </is>
       </c>
     </row>
@@ -4224,42 +4224,42 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Mikal Bridges</t>
+          <t>Jordan Poole</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>35.3%</t>
+          <t>42.1%</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4269,17 +4269,17 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>37.7</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>36.4</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>13.0</t>
         </is>
       </c>
     </row>
@@ -4289,42 +4289,42 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Jae Crowder</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>40.5%</t>
+          <t>36.9%</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4334,17 +4334,17 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>43.4</t>
+          <t>26.6</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>36.6</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>-10.0</t>
         </is>
       </c>
     </row>
@@ -4404,12 +4404,12 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>37.2</t>
+          <t>37.1</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>9.8</t>
         </is>
       </c>
     </row>
@@ -4419,62 +4419,62 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Troy Brown Jr.</t>
+          <t>Jae Crowder</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>53.3%</t>
+          <t>40.5%</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>43.4</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>36.4</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>7.4</t>
         </is>
       </c>
     </row>
@@ -4484,62 +4484,62 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Gary Trent Jr.</t>
+          <t>Mikal Bridges</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>42.1%</t>
+          <t>35.3%</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>29.2</t>
+          <t>37.7</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>-7.8</t>
+          <t>1.3</t>
         </is>
       </c>
     </row>
@@ -4614,42 +4614,42 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Blake Griffin</t>
+          <t>Delon Wright</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>44.4%</t>
+          <t>34.5%</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4659,17 +4659,17 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>36.4</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>-7.5</t>
         </is>
       </c>
     </row>
@@ -4679,42 +4679,42 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Danilo Gallinari</t>
+          <t>Troy Brown Jr.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>52.6%</t>
+          <t>53.3%</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4724,17 +4724,17 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>38.1</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>-13.1</t>
+          <t>1.1</t>
         </is>
       </c>
     </row>
@@ -4744,17 +4744,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Grant Williams</t>
+          <t>Patrick Williams</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -4764,12 +4764,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -4789,17 +4789,17 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>34.1</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>36.8</t>
+          <t>36.6</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>-1.6</t>
         </is>
       </c>
     </row>
@@ -4809,37 +4809,37 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Delon Wright</t>
+          <t>Steven Adams</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>34.5%</t>
+          <t>34.3%</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4854,17 +4854,17 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>29.2</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>36.1</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>-7.5</t>
+          <t>-7.0</t>
         </is>
       </c>
     </row>
@@ -4874,42 +4874,42 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Steven Adams</t>
+          <t>Grant Williams</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>34.3%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4919,17 +4919,17 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>29.2</t>
+          <t>35.9</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>36.3</t>
+          <t>36.8</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>-7.1</t>
+          <t>-0.9</t>
         </is>
       </c>
     </row>
@@ -5004,42 +5004,42 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Patrick Williams</t>
+          <t>Gary Trent Jr.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>29.4%</t>
+          <t>42.1%</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -5049,17 +5049,17 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>29.2</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>36.6</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>-1.6</t>
+          <t>-7.8</t>
         </is>
       </c>
     </row>
@@ -5069,62 +5069,62 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Victor Oladipo</t>
+          <t>Danilo Gallinari</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>45.0%</t>
+          <t>52.6%</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>40.7</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>36.7</t>
+          <t>38.1</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>-13.1</t>
         </is>
       </c>
     </row>
@@ -5134,62 +5134,62 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
+          <t>Blake Griffin</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>36.0%</t>
+          <t>44.4%</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>27.9</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>36.8</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>-8.9</t>
+          <t>13.6</t>
         </is>
       </c>
     </row>
@@ -5199,17 +5199,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Gary Payton II</t>
+          <t>Victor Oladipo</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -5219,22 +5219,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>55.6%</t>
+          <t>45.0%</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -5244,17 +5244,17 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>40.7</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>35.8</t>
+          <t>36.6</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>15.6</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>37.6</t>
+          <t>37.4</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>9.9</t>
         </is>
       </c>
     </row>
@@ -5459,42 +5459,42 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Fred VanVleet</t>
+          <t>Jaylen Brown</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>34.9%</t>
+          <t>35.2%</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -5504,17 +5504,17 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>39.8</t>
+          <t>37.8</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>-6.8</t>
         </is>
       </c>
     </row>
@@ -5524,62 +5524,62 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Kevon Looney</t>
+          <t>Fred VanVleet</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>34.8%</t>
+          <t>34.9%</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>29.6</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>35.5</t>
+          <t>39.8</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>-5.9</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -5589,42 +5589,42 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Jaylen Brown</t>
+          <t>Spencer Dinwiddie</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>34.9%</t>
+          <t>41.4%</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -5634,17 +5634,17 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>31.7</t>
+          <t>34.9</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>37.8</t>
+          <t>37.1</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>-6.1</t>
+          <t>-2.2</t>
         </is>
       </c>
     </row>
@@ -5704,12 +5704,12 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>36.6</t>
+          <t>36.5</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-3.2</t>
         </is>
       </c>
     </row>
@@ -5719,42 +5719,42 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Spencer Dinwiddie</t>
+          <t>Kevon Looney</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>41.4%</t>
+          <t>34.3%</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5764,17 +5764,17 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>34.9</t>
+          <t>28.4</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>37.1</t>
+          <t>35.4</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>-2.2</t>
+          <t>-7.0</t>
         </is>
       </c>
     </row>
@@ -5834,7 +5834,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>36.3</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -5914,42 +5914,42 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Klay Thompson</t>
+          <t>Khris Middleton</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>36.0%</t>
+          <t>28.0%</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5959,17 +5959,17 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>35.8</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>36.6</t>
+          <t>34.4</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>-34.4</t>
         </is>
       </c>
     </row>
@@ -6044,42 +6044,42 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Khris Middleton</t>
+          <t>Klay Thompson</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>28.0%</t>
+          <t>36.1%</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6089,17 +6089,17 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>34.8</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>34.4</t>
+          <t>36.5</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>-34.4</t>
+          <t>-1.7</t>
         </is>
       </c>
     </row>
@@ -6304,42 +6304,42 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Jaden McDaniels</t>
+          <t>Grayson Allen</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>30.2%</t>
+          <t>34.5%</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -6349,17 +6349,17 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>31.6</t>
+          <t>34.2</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>35.4</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>-6.4</t>
+          <t>-1.1</t>
         </is>
       </c>
     </row>
@@ -6369,42 +6369,42 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Grayson Allen</t>
+          <t>Jaden McDaniels</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>34.5%</t>
+          <t>30.2%</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6414,17 +6414,17 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>34.2</t>
+          <t>31.6</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>35.4</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>-1.2</t>
+          <t>-6.4</t>
         </is>
       </c>
     </row>
@@ -6454,17 +6454,17 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>32.3%</t>
+          <t>32.4%</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -6479,7 +6479,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>26.6</t>
+          <t>26.5</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -6489,7 +6489,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>-10.7</t>
+          <t>-10.8</t>
         </is>
       </c>
     </row>
@@ -6499,7 +6499,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Jeff Green</t>
+          <t>JaMychal Green</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -6509,12 +6509,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -6529,12 +6529,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>51.7%</t>
+          <t>48.4%</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6544,7 +6544,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -6554,7 +6554,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>-3.2</t>
+          <t>10.1</t>
         </is>
       </c>
     </row>
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>JaMychal Green</t>
+          <t>Bones Hyland</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -6574,12 +6574,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -6589,17 +6589,17 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>48.4%</t>
+          <t>40.5%</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6609,17 +6609,17 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>26.7</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>36.7</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>-10.2</t>
         </is>
       </c>
     </row>
@@ -6694,42 +6694,42 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Jose Alvarado</t>
+          <t>Jeff Green</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>47.4%</t>
+          <t>51.7%</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -6739,17 +6739,17 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>22.2</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>36.7</t>
+          <t>36.3</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>-14.4</t>
+          <t>-3.0</t>
         </is>
       </c>
     </row>
@@ -6759,17 +6759,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Bones Hyland</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -6779,22 +6779,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>40.5%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -6804,17 +6804,17 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>26.7</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>36.9</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>-10.3</t>
+          <t>18.6</t>
         </is>
       </c>
     </row>
@@ -6824,22 +6824,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Danuel House Jr.</t>
+          <t>Jose Alvarado</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -6854,12 +6854,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>47.4%</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6869,17 +6869,17 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>22.2</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>35.9</t>
+          <t>36.7</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>14.1</t>
+          <t>-14.4</t>
         </is>
       </c>
     </row>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Danuel House Jr.</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -6899,12 +6899,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -6914,17 +6914,17 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -6934,17 +6934,17 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>35.9</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>18.6</t>
+          <t>14.1</t>
         </is>
       </c>
     </row>
@@ -6954,22 +6954,22 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Hassan Whiteside</t>
+          <t>Precious Achiuwa</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -6979,17 +6979,17 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>53.1%</t>
+          <t>23.9%</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -6999,17 +6999,17 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>29.4</t>
+          <t>41.2</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>37.8</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>-6.3</t>
+          <t>3.4</t>
         </is>
       </c>
     </row>
@@ -7019,17 +7019,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Jonas Valanciunas</t>
+          <t>Hassan Whiteside</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -7049,12 +7049,12 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>53.1%</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -7064,17 +7064,17 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>29.4</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>37.2</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>21.6</t>
+          <t>-6.3</t>
         </is>
       </c>
     </row>
@@ -7084,22 +7084,22 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Precious Achiuwa</t>
+          <t>Jonas Valanciunas</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -7109,17 +7109,17 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>23.9%</t>
+          <t>13.8%</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -7129,17 +7129,17 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>41.2</t>
+          <t>58.8</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>37.8</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>21.6</t>
         </is>
       </c>
     </row>
@@ -7199,12 +7199,12 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>36.9</t>
+          <t>36.8</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>9.6</t>
         </is>
       </c>
     </row>
@@ -7264,12 +7264,12 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>35.2</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>-16.8</t>
+          <t>-17.0</t>
         </is>
       </c>
     </row>
@@ -7334,7 +7334,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>-9.6</t>
+          <t>-9.5</t>
         </is>
       </c>
     </row>
@@ -7394,12 +7394,12 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>36.1</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>-4.9</t>
+          <t>-4.8</t>
         </is>
       </c>
     </row>
@@ -7459,12 +7459,12 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>36.9</t>
+          <t>36.8</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>-6.5</t>
+          <t>-6.4</t>
         </is>
       </c>
     </row>
@@ -7589,7 +7589,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>35.9</t>
+          <t>35.8</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -7734,22 +7734,22 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Onyeka Okongwu</t>
+          <t>Ayo Dosunmu</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -7759,17 +7759,17 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>26.7%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -7779,17 +7779,17 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>16.7</t>
+          <t>41.7</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>36.9</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>-20.2</t>
+          <t>3.7</t>
         </is>
       </c>
     </row>
@@ -7799,7 +7799,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Ayo Dosunmu</t>
+          <t>Tristan Thompson</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -7809,12 +7809,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -7824,17 +7824,17 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>44.4%</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -7844,17 +7844,17 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>41.7</t>
+          <t>16.7</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>34.6</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>-17.9</t>
         </is>
       </c>
     </row>
@@ -7864,22 +7864,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Tristan Thompson</t>
+          <t>Onyeka Okongwu</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -7889,12 +7889,12 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>44.4%</t>
+          <t>26.7%</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -7914,12 +7914,12 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>34.6</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>-17.9</t>
+          <t>-20.2</t>
         </is>
       </c>
     </row>
@@ -7979,7 +7979,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>35.8</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
@@ -7994,7 +7994,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Thaddeus Young</t>
+          <t>Khem Birch</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -8004,12 +8004,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -8024,12 +8024,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>32.6%</t>
+          <t>41.2%</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -8039,17 +8039,17 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>28.6</t>
+          <t>64.3</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>36.6</t>
+          <t>36.7</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>27.6</t>
         </is>
       </c>
     </row>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Khem Birch</t>
+          <t>Thaddeus Young</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -8134,12 +8134,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -8154,12 +8154,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>41.2%</t>
+          <t>32.6%</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -8169,17 +8169,17 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>64.3</t>
+          <t>28.6</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>36.7</t>
+          <t>36.6</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>27.6</t>
+          <t>-8.0</t>
         </is>
       </c>
     </row>
@@ -8189,42 +8189,42 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Andre Iguodala</t>
+          <t>Maxi Kleber</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>38.9%</t>
+          <t>19.2%</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -8234,17 +8234,17 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>14.3</t>
+          <t>35.9</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>35.1</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>-20.8</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -8254,42 +8254,42 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Jonathan Kuminga</t>
+          <t>Andre Drummond</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>32.1%</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -8299,17 +8299,17 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>31.3</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>33.9</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>-3.7</t>
+          <t>21.6</t>
         </is>
       </c>
     </row>
@@ -8319,42 +8319,42 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Maxi Kleber</t>
+          <t>Bismack Biyombo</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>19.2%</t>
+          <t>36.0%</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -8364,17 +8364,17 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>35.9</t>
+          <t>27.8</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>36.9</t>
+          <t>35.5</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>-7.8</t>
         </is>
       </c>
     </row>
@@ -8384,12 +8384,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Andre Drummond</t>
+          <t>Duncan Robinson</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -8399,47 +8399,47 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>32.1%</t>
+          <t>44.6%</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>24.1</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>33.8</t>
+          <t>35.4</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>21.7</t>
+          <t>-11.3</t>
         </is>
       </c>
     </row>
@@ -8449,62 +8449,62 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Bismack Biyombo</t>
+          <t>Jonathan Kuminga</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>36.0%</t>
+          <t>50.8%</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>27.8</t>
+          <t>30.3</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>35.5</t>
+          <t>34.7</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>-7.8</t>
+          <t>-4.4</t>
         </is>
       </c>
     </row>
@@ -8514,42 +8514,42 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Duncan Robinson</t>
+          <t>Jaxson Hayes</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>44.6%</t>
+          <t>40.6%</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8559,17 +8559,17 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>24.1</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>35.4</t>
+          <t>35.1</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>-11.3</t>
+          <t>-27.5</t>
         </is>
       </c>
     </row>
@@ -8579,62 +8579,62 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Jaxson Hayes</t>
+          <t>Payton Pritchard</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>40.6%</t>
+          <t>43.1%</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>35.1</t>
+          <t>36.6</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>-27.5</t>
+          <t>13.4</t>
         </is>
       </c>
     </row>
@@ -8644,62 +8644,62 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Payton Pritchard</t>
+          <t>Juancho Hernangomez</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>42.6%</t>
+          <t>54.5%</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>36.6</t>
+          <t>35.6</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>14.6</t>
+          <t>-2.3</t>
         </is>
       </c>
     </row>
@@ -8709,42 +8709,42 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>De'Anthony Melton</t>
+          <t>Andre Iguodala</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>35.7%</t>
+          <t>42.1%</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -8754,17 +8754,17 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>37.3</t>
+          <t>35.3</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>-10.3</t>
         </is>
       </c>
     </row>
@@ -8774,42 +8774,42 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Timothe Luwawu-Cabarrot</t>
+          <t>DeMarcus Cousins</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>57.1%</t>
+          <t>37.0%</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -8819,17 +8819,17 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>37.4</t>
+          <t>37.9</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>22.1</t>
         </is>
       </c>
     </row>
@@ -8839,42 +8839,42 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Otto Porter Jr.</t>
+          <t>Greg Monroe</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>29.9%</t>
+          <t>28.6%</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -8884,17 +8884,17 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>34.4</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>32.8</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>-1.3</t>
+          <t>17.2</t>
         </is>
       </c>
     </row>
@@ -8904,42 +8904,42 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Nemanja Bjelica</t>
+          <t>Jaylen Nowell</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>29.9%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -8949,17 +8949,17 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>34.6</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>35.3</t>
+          <t>31.7</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>-0.6</t>
+          <t>-31.7</t>
         </is>
       </c>
     </row>
@@ -8969,17 +8969,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Jaylen Nowell</t>
+          <t>De'Anthony Melton</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -8989,22 +8989,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>35.7%</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -9014,17 +9014,17 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>31.7</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>-31.7</t>
+          <t>-2.2</t>
         </is>
       </c>
     </row>
@@ -9034,42 +9034,42 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Greg Monroe</t>
+          <t>Georges Niang</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>28.6%</t>
+          <t>35.8%</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -9079,17 +9079,17 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>29.2</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>32.8</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>17.2</t>
+          <t>-5.1</t>
         </is>
       </c>
     </row>
@@ -9099,42 +9099,42 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>DeMarcus Cousins</t>
+          <t>Timothe Luwawu-Cabarrot</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>37.0%</t>
+          <t>57.1%</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -9144,17 +9144,17 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>37.4</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>12.6</t>
         </is>
       </c>
     </row>
@@ -9164,17 +9164,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Juancho Hernangomez</t>
+          <t>Otto Porter Jr.</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -9184,17 +9184,17 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>54.5%</t>
+          <t>29.7%</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -9204,22 +9204,22 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>35.6</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>0.7</t>
         </is>
       </c>
     </row>
@@ -9229,7 +9229,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Georges Niang</t>
+          <t>Matisse Thybulle</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -9239,52 +9239,52 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>35.8%</t>
+          <t>28.8%</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>29.2</t>
+          <t>35.3</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>35.4</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>-5.1</t>
+          <t>-0.1</t>
         </is>
       </c>
     </row>
@@ -9294,42 +9294,42 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Matisse Thybulle</t>
+          <t>Nemanja Bjelica</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>28.8%</t>
+          <t>28.9%</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -9339,17 +9339,17 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>35.3</t>
+          <t>34.6</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>35.4</t>
+          <t>35.2</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>-0.6</t>
         </is>
       </c>
     </row>
@@ -9409,12 +9409,12 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>38.2</t>
+          <t>38.1</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>-22.8</t>
+          <t>-22.7</t>
         </is>
       </c>
     </row>
@@ -9489,22 +9489,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>George Hill</t>
+          <t>Naz Reid</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -9514,17 +9514,17 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>30.0%</t>
+          <t>26.5%</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -9534,17 +9534,17 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>35.9</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -9554,17 +9554,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Austin Rivers</t>
+          <t>George Hill</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -9579,7 +9579,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -9589,7 +9589,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -9599,17 +9599,17 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>22.2</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>38.2</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>-16.0</t>
+          <t>8.4</t>
         </is>
       </c>
     </row>
@@ -9619,22 +9619,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Naz Reid</t>
+          <t>Austin Rivers</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -9644,17 +9644,17 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>26.5%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -9664,17 +9664,17 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>22.2</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-15.7</t>
         </is>
       </c>
     </row>
@@ -9934,7 +9934,7 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>-1.9</t>
+          <t>-1.8</t>
         </is>
       </c>
     </row>
@@ -10084,7 +10084,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -10269,17 +10269,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Frank Ntilikina</t>
+          <t>Moses Moody</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -10289,17 +10289,17 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>32.5%</t>
+          <t>45.5%</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -10309,22 +10309,22 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>30.8</t>
+          <t>26.7</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>36.9</t>
+          <t>33.7</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>-6.2</t>
+          <t>-7.0</t>
         </is>
       </c>
     </row>
@@ -10399,17 +10399,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Moses Moody</t>
+          <t>Frank Ntilikina</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -10424,17 +10424,17 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>41.9%</t>
+          <t>32.5%</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -10444,17 +10444,17 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>23.1</t>
+          <t>30.8</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>35.6</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>-12.6</t>
+          <t>-6.2</t>
         </is>
       </c>
     </row>
@@ -10464,22 +10464,22 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>John Konchar</t>
+          <t>Javonte Green</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -10494,7 +10494,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>31.8%</t>
+          <t>29.2%</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -10514,12 +10514,12 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>37.8</t>
+          <t>36.3</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>-9.2</t>
+          <t>-7.7</t>
         </is>
       </c>
     </row>
@@ -10529,22 +10529,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Taurean Prince</t>
+          <t>John Konchar</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -10554,17 +10554,17 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>36.8%</t>
+          <t>31.8%</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10574,17 +10574,17 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>14.3</t>
+          <t>28.6</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>34.6</t>
+          <t>37.8</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>-20.3</t>
+          <t>-9.2</t>
         </is>
       </c>
     </row>
@@ -10594,7 +10594,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Jordan McLaughlin</t>
+          <t>Taurean Prince</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -10604,12 +10604,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -10619,17 +10619,17 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>36.8%</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -10639,17 +10639,17 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>28.6</t>
+          <t>14.3</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>36.7</t>
+          <t>34.6</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>-8.2</t>
+          <t>-20.3</t>
         </is>
       </c>
     </row>
@@ -10659,22 +10659,22 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Javonte Green</t>
+          <t>Jordan McLaughlin</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -10689,7 +10689,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>29.2%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -10709,12 +10709,12 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>36.3</t>
+          <t>36.7</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>-7.7</t>
+          <t>-8.2</t>
         </is>
       </c>
     </row>
@@ -10724,42 +10724,42 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Torrey Craig</t>
+          <t>Malik Beasley</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>36.4%</t>
+          <t>32.0%</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -10769,17 +10769,17 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>41.7</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>35.3</t>
+          <t>36.7</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>-24.2</t>
         </is>
       </c>
     </row>
@@ -10789,42 +10789,42 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Malik Beasley</t>
+          <t>Torrey Craig</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>32.0%</t>
+          <t>36.4%</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10834,17 +10834,17 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>41.7</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>36.7</t>
+          <t>35.3</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>-24.2</t>
+          <t>6.4</t>
         </is>
       </c>
     </row>
@@ -10969,12 +10969,12 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>37.3</t>
+          <t>37.1</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.9</t>
         </is>
       </c>
     </row>
@@ -11034,12 +11034,12 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>33.4</t>
+          <t>33.2</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>6.8</t>
         </is>
       </c>
     </row>
@@ -11099,12 +11099,12 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>36.8</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
@@ -11114,22 +11114,22 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Sterling Brown</t>
+          <t>Malachi Flynn</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -11139,17 +11139,17 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>46.2%</t>
+          <t>31.6%</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -11159,17 +11159,17 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>36.6</t>
+          <t>37.1</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>-3.8</t>
         </is>
       </c>
     </row>
@@ -11179,22 +11179,22 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Malachi Flynn</t>
+          <t>Sterling Brown</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -11204,17 +11204,17 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>31.6%</t>
+          <t>46.2%</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -11224,17 +11224,17 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>37.1</t>
+          <t>36.6</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>-3.8</t>
+          <t>46.7</t>
         </is>
       </c>
     </row>
@@ -11294,12 +11294,12 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>36.6</t>
+          <t>36.7</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>-1.6</t>
+          <t>-1.7</t>
         </is>
       </c>
     </row>
@@ -11439,22 +11439,22 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Jarrett Culver</t>
+          <t>Kessler Edwards</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -11469,7 +11469,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -11489,12 +11489,12 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>32.6</t>
+          <t>31.3</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>-32.6</t>
+          <t>-31.3</t>
         </is>
       </c>
     </row>
@@ -11504,42 +11504,42 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Trey Burke</t>
+          <t>Sam Hauser</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>40.9%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -11549,17 +11549,17 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>10.4</t>
+          <t>63.1</t>
         </is>
       </c>
     </row>
@@ -11569,17 +11569,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Eric Paschall</t>
+          <t>Jalen Johnson</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -11589,12 +11589,12 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -11614,17 +11614,17 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>35.8</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>-10.8</t>
+          <t>63.6</t>
         </is>
       </c>
     </row>
@@ -11634,17 +11634,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Paul Millsap</t>
+          <t>Malik Fitts</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -11654,22 +11654,22 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -11679,17 +11679,17 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>39.4</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>-39.4</t>
+          <t>14.3</t>
         </is>
       </c>
     </row>
@@ -11699,37 +11699,37 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Vlatko Cancar</t>
+          <t>Luca Vildoza</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -11749,12 +11749,12 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>36.7</t>
+          <t>37.3</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>-36.7</t>
+          <t>-37.3</t>
         </is>
       </c>
     </row>
@@ -11764,17 +11764,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Malik Fitts</t>
+          <t>Vlatko Cancar</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -11784,22 +11784,22 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11809,17 +11809,17 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>35.6</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>14.4</t>
+          <t>-36.9</t>
         </is>
       </c>
     </row>
@@ -11829,17 +11829,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Sam Hauser</t>
+          <t>Derrick Jones Jr.</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -11849,42 +11849,42 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>36.7</t>
+          <t>38.6</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>63.3</t>
+          <t>-18.6</t>
         </is>
       </c>
     </row>
@@ -11894,42 +11894,42 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Kevin Knox II</t>
+          <t>Aaron Holiday</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -11939,17 +11939,17 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>38.4</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>11.7</t>
+          <t>6.0</t>
         </is>
       </c>
     </row>
@@ -11959,42 +11959,42 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Haywood Highsmith</t>
+          <t>Tony Bradley</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -12004,17 +12004,17 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>32.7</t>
+          <t>35.3</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>-7.7</t>
+          <t>-35.3</t>
         </is>
       </c>
     </row>
@@ -12024,42 +12024,42 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Clint Capela</t>
+          <t>Garrett Temple</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>13.3%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -12069,17 +12069,17 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>32.9</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>-37.5</t>
+          <t>67.1</t>
         </is>
       </c>
     </row>
@@ -12089,7 +12089,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Jalen Johnson</t>
+          <t>Kevin Knox II</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -12099,7 +12099,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -12109,42 +12109,42 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>36.4</t>
+          <t>38.4</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>63.6</t>
+          <t>11.7</t>
         </is>
       </c>
     </row>
@@ -12154,17 +12154,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Kessler Edwards</t>
+          <t>Paul Millsap</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -12204,12 +12204,12 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>31.5</t>
+          <t>39.4</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>-31.5</t>
+          <t>-39.4</t>
         </is>
       </c>
     </row>
@@ -12219,12 +12219,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Derrick Jones Jr.</t>
+          <t>Eric Paschall</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -12239,22 +12239,22 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -12264,17 +12264,17 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>38.6</t>
+          <t>35.8</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>-18.6</t>
+          <t>-10.8</t>
         </is>
       </c>
     </row>
@@ -12284,22 +12284,22 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Tony Bradley</t>
+          <t>Clint Capela</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -12314,7 +12314,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>13.3%</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -12334,12 +12334,12 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>35.3</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>-35.3</t>
+          <t>-37.5</t>
         </is>
       </c>
     </row>
@@ -12349,37 +12349,37 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Luca Vildoza</t>
+          <t>Jarrett Culver</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -12399,12 +12399,12 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>37.3</t>
+          <t>32.6</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>-37.3</t>
+          <t>-32.6</t>
         </is>
       </c>
     </row>
@@ -12414,37 +12414,37 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Yuta Watanabe</t>
+          <t>Haywood Highsmith</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>42.9%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -12459,17 +12459,17 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>36.2</t>
+          <t>32.7</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>-2.9</t>
+          <t>-7.7</t>
         </is>
       </c>
     </row>
@@ -12479,17 +12479,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Aaron Holiday</t>
+          <t>Trey Burke</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -12499,17 +12499,17 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>40.9%</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -12524,7 +12524,7 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -12534,7 +12534,7 @@
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>10.4</t>
         </is>
       </c>
     </row>
@@ -12544,17 +12544,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Garrett Temple</t>
+          <t>Yuta Watanabe</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -12564,42 +12564,42 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>42.9%</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>32.9</t>
+          <t>36.2</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>67.1</t>
+          <t>-2.9</t>
         </is>
       </c>
     </row>
@@ -12759,17 +12759,17 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -12789,12 +12789,12 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>34.6</t>
+          <t>34.1</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>-34.6</t>
+          <t>-34.1</t>
         </is>
       </c>
     </row>
@@ -12869,17 +12869,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Dalano Banton</t>
+          <t>Naji Marshall</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -12889,7 +12889,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -12899,32 +12899,32 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
           <t>0.7</t>
         </is>
       </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>32.9</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>67.2</t>
+          <t>12.6</t>
         </is>
       </c>
     </row>
@@ -12934,42 +12934,42 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Naji Marshall</t>
+          <t>Charles Bassey</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -12979,17 +12979,17 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>22.5</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>-22.5</t>
         </is>
       </c>
     </row>
@@ -13049,12 +13049,12 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>31.2</t>
+          <t>31.1</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>18.9</t>
+          <t>19.0</t>
         </is>
       </c>
     </row>
@@ -13064,22 +13064,22 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Charles Bassey</t>
+          <t>Dalano Banton</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -13089,17 +13089,17 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -13109,17 +13109,17 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>32.9</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>-22.5</t>
+          <t>67.2</t>
         </is>
       </c>
     </row>
@@ -13259,22 +13259,22 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Zeke Nnaji</t>
+          <t>DeAndre Jordan</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -13289,32 +13289,32 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>7.1%</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>32.6</t>
+          <t>35.6</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>67.4</t>
+          <t>-35.6</t>
         </is>
       </c>
     </row>
@@ -13324,7 +13324,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>DeAndre Jordan</t>
+          <t>Jaden Springer</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -13334,12 +13334,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -13354,7 +13354,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>7.1%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -13374,12 +13374,12 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>35.6</t>
+          <t>37.3</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>-35.6</t>
+          <t>-37.3</t>
         </is>
       </c>
     </row>
@@ -13389,27 +13389,27 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Armoni Brooks</t>
+          <t>Zeke Nnaji</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -13419,12 +13419,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -13434,17 +13434,17 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>32.2</t>
+          <t>32.6</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>-32.2</t>
+          <t>67.4</t>
         </is>
       </c>
     </row>
@@ -13454,17 +13454,17 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Jaden Springer</t>
+          <t>Armoni Brooks</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -13474,7 +13474,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -13504,12 +13504,12 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>37.3</t>
+          <t>32.2</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>-37.3</t>
+          <t>-32.2</t>
         </is>
       </c>
     </row>
@@ -13569,12 +13569,12 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>35.5</t>
+          <t>35.6</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>-35.5</t>
+          <t>-35.6</t>
         </is>
       </c>
     </row>
@@ -13634,12 +13634,12 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>38.6</t>
+          <t>38.7</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>-38.6</t>
+          <t>-38.7</t>
         </is>
       </c>
     </row>
